--- a/cell.xlsx
+++ b/cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{085670CA-CF79-4C1F-8917-377686E2D942}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B132ED9-4606-4F59-AE2F-483BA8606410}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Reason</t>
   </si>
@@ -41,9 +41,6 @@
     <t>LTE</t>
   </si>
   <si>
-    <t>Tharinduw</t>
-  </si>
-  <si>
     <t>QCCSS1G</t>
   </si>
   <si>
@@ -62,16 +59,13 @@
     <t>BSC31</t>
   </si>
   <si>
-    <t>Chandimal</t>
-  </si>
-  <si>
     <t>Site Name</t>
   </si>
   <si>
     <t>BSC/RNC</t>
   </si>
   <si>
-    <t>Requestor</t>
+    <t>Power Issue</t>
   </si>
 </sst>
 </file>
@@ -470,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEC5CE-6E5E-4639-8F99-D05BEE4E33AC}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,54 +479,47 @@
     <col min="5" max="5" width="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell.xlsx
+++ b/cell.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B132ED9-4606-4F59-AE2F-483BA8606410}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75051656-3351-4EA6-B1E5-893D63AD714D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Reason</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>Power Issue</t>
+  </si>
+  <si>
+    <t>Block</t>
+  </si>
+  <si>
+    <t>Request Type</t>
   </si>
 </sst>
 </file>
@@ -464,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEC5CE-6E5E-4639-8F99-D05BEE4E33AC}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,11 +481,10 @@
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="25.88671875" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="57" customWidth="1"/>
+    <col min="4" max="5" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -492,8 +497,11 @@
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -506,8 +514,11 @@
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -520,6 +531,7 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell.xlsx
+++ b/cell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75051656-3351-4EA6-B1E5-893D63AD714D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEF8E6-D0B6-4693-BB93-87759E2812CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
+    <workbookView xWindow="1392" yWindow="1392" windowWidth="10728" windowHeight="6600" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Reason</t>
   </si>
@@ -38,15 +38,6 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>LTE</t>
-  </si>
-  <si>
-    <t>QCCSS1G</t>
-  </si>
-  <si>
-    <t>QCCSS1-Small Cell</t>
-  </si>
-  <si>
     <t>Quality Issue</t>
   </si>
   <si>
@@ -72,6 +63,15 @@
   </si>
   <si>
     <t>Request Type</t>
+  </si>
+  <si>
+    <t>Mahargama</t>
+  </si>
+  <si>
+    <t>4G</t>
+  </si>
+  <si>
+    <t>Deblock</t>
   </si>
 </sst>
 </file>
@@ -472,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEC5CE-6E5E-4639-8F99-D05BEE4E33AC}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,49 +489,51 @@
         <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cell.xlsx
+++ b/cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\CELL_Block_Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBEF8E6-D0B6-4693-BB93-87759E2812CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D1BF46-FD9C-45AB-B509-15D31629DDC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1392" yWindow="1392" windowWidth="10728" windowHeight="6600" xr2:uid="{7C1CD805-3218-4001-A288-BECE5999DFD8}"/>
   </bookViews>
@@ -59,9 +59,6 @@
     <t>Power Issue</t>
   </si>
   <si>
-    <t>Block</t>
-  </si>
-  <si>
     <t>Request Type</t>
   </si>
   <si>
@@ -71,7 +68,10 @@
     <t>4G</t>
   </si>
   <si>
-    <t>Deblock</t>
+    <t>deblock</t>
+  </si>
+  <si>
+    <t>block</t>
   </si>
 </sst>
 </file>
@@ -473,7 +473,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -506,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -532,7 +532,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
